--- a/Biden_Admin.xlsx
+++ b/Biden_Admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleymathew/Downloads/Spring 2023/Advanced Policy Analysis/Repositories/Contracting_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A65DC9-5B13-8B4F-A4CF-95C584218049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD8B9D5-805F-6D46-BB6E-F4C65D898F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" xr2:uid="{C555AFD5-505E-E647-AA3D-1FCAA5BEB9F6}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>DEPARTMENT OFVETERANS AFFAIRS</t>
   </si>
   <si>
-    <t>DEPARTMENT OFHEALTH AND HUMAN SERVICES</t>
-  </si>
-  <si>
     <t>DEPARTMENT OF HOMELAND SECURITY</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>DEPARTMENT OF HOUSING AND URBAN DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF HEALTH AND HUMAN SERVICES</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -821,7 +821,7 @@
     </row>
     <row r="5" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6">
         <v>84029099567.729996</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="6" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
         <v>47376318952.410004</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="7" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6">
         <v>23703149430.400002</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="8" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>21504203395.919998</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="9" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6">
         <v>21306318741.099998</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="10" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3">
         <v>20140063716.68</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="11" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6">
         <v>19395705527.529999</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="12" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3">
         <v>13896349690.73</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="13" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3">
         <v>9650761290.2399998</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="14" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6">
         <v>5841431242.9300003</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="15" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3">
         <v>5044640883.6000004</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="16" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>1475950441.49</v>

--- a/Biden_Admin.xlsx
+++ b/Biden_Admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleymathew/Downloads/Spring 2023/Advanced Policy Analysis/Repositories/Contracting_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD8B9D5-805F-6D46-BB6E-F4C65D898F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC14225-AFAC-1846-BD5D-CD2EAB4261F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" xr2:uid="{C555AFD5-505E-E647-AA3D-1FCAA5BEB9F6}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>DEPT OF DEFENSE</t>
-  </si>
-  <si>
     <t>Other Minority Owned Business Dollars</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t xml:space="preserve"> DEPARTMENT OF ENERGY</t>
   </si>
   <si>
-    <t>DEPARTMENT OFVETERANS AFFAIRS</t>
-  </si>
-  <si>
     <t>DEPARTMENT OF HOMELAND SECURITY</t>
   </si>
   <si>
@@ -128,13 +122,19 @@
     <t>DEPARTMENT OF EDUCATION</t>
   </si>
   <si>
-    <t>DEPARTMENT OFLABOR</t>
-  </si>
-  <si>
     <t>DEPARTMENT OF HOUSING AND URBAN DEVELOPMENT</t>
   </si>
   <si>
     <t>DEPARTMENT OF HEALTH AND HUMAN SERVICES</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF DEFENSE</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF LABOR</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF VETERANS AFFAIRS</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -597,63 +597,63 @@
   <sheetData>
     <row r="1" spans="1:18" ht="72" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3">
         <v>814930871657.10999</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="3" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6">
         <v>107191720573.45</v>
@@ -763,9 +763,9 @@
         <v>275291384.23000002</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>106495348863.88</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="5" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6">
         <v>84029099567.729996</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="6" spans="1:18" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>47376318952.410004</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="7" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6">
         <v>23703149430.400002</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="8" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>21504203395.919998</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="9" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6">
         <v>21306318741.099998</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="10" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
         <v>20140063716.68</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="11" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6">
         <v>19395705527.529999</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="12" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3">
         <v>13896349690.73</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="13" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
         <v>9650761290.2399998</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="14" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6">
         <v>5841431242.9300003</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="15" spans="1:18" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3">
         <v>5044640883.6000004</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="16" spans="1:18" ht="48" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3">
         <v>1475950441.49</v>
